--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_latest_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_latest_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0824585479629654</v>
+        <v>-0.09914768942982544</v>
       </c>
       <c r="C2">
-        <v>0.7082530784266775</v>
+        <v>0.6760636891099804</v>
       </c>
       <c r="D2">
-        <v>1.126232045301014</v>
+        <v>1.058759192261776</v>
       </c>
       <c r="E2">
-        <v>1.061240804577836</v>
+        <v>1.02896024814459</v>
       </c>
       <c r="F2">
-        <v>1.088706393657422</v>
+        <v>1.052237025233689</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.1380537932508964</v>
+        <v>-0.1143386297721907</v>
       </c>
       <c r="C3">
-        <v>0.7047665156913986</v>
+        <v>0.6889840097079422</v>
       </c>
       <c r="D3">
-        <v>1.020107556231466</v>
+        <v>0.9692665404913205</v>
       </c>
       <c r="E3">
-        <v>1.010003740701719</v>
+        <v>0.9845133521142924</v>
       </c>
       <c r="F3">
-        <v>1.031316755682044</v>
+        <v>1.006200714633619</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.01411495714085602</v>
+        <v>-0.03231471279853988</v>
       </c>
       <c r="C4">
-        <v>0.8139606589127379</v>
+        <v>0.7695157101427289</v>
       </c>
       <c r="D4">
-        <v>1.020589802608503</v>
+        <v>0.9504010021523444</v>
       </c>
       <c r="E4">
-        <v>1.010242447439476</v>
+        <v>0.9748851225412891</v>
       </c>
       <c r="F4">
-        <v>1.043272068366145</v>
+        <v>1.004336377456358</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.06167385895817969</v>
+        <v>0.05671622629984657</v>
       </c>
       <c r="C5">
-        <v>0.6844086866016225</v>
+        <v>0.6321910596607474</v>
       </c>
       <c r="D5">
-        <v>0.9206952322497455</v>
+        <v>0.8518300650585396</v>
       </c>
       <c r="E5">
-        <v>0.9595286510833043</v>
+        <v>0.9229464042177854</v>
       </c>
       <c r="F5">
-        <v>0.9911527743910939</v>
+        <v>0.951413452211165</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1056112561728576</v>
+        <v>0.085928964333323</v>
       </c>
       <c r="C6">
-        <v>0.6013487945237135</v>
+        <v>0.5612671955956002</v>
       </c>
       <c r="D6">
-        <v>0.6357138575842927</v>
+        <v>0.5873845025919633</v>
       </c>
       <c r="E6">
-        <v>0.7973166607968836</v>
+        <v>0.7664101399328973</v>
       </c>
       <c r="F6">
-        <v>0.8201238969323885</v>
+        <v>0.7883078955770884</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1425965899248276</v>
+        <v>0.1382138394267656</v>
       </c>
       <c r="C7">
-        <v>0.7901839875516051</v>
+        <v>0.7476276879241753</v>
       </c>
       <c r="D7">
-        <v>1.186536206593484</v>
+        <v>1.097975515794379</v>
       </c>
       <c r="E7">
-        <v>1.08928242737753</v>
+        <v>1.047843268716452</v>
       </c>
       <c r="F7">
-        <v>1.124004427955351</v>
+        <v>1.077897322974905</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1650267330498616</v>
+        <v>0.1215206328360093</v>
       </c>
       <c r="C8">
-        <v>0.8300680349047299</v>
+        <v>0.7819526689445239</v>
       </c>
       <c r="D8">
-        <v>1.308367612026744</v>
+        <v>1.205421270947194</v>
       </c>
       <c r="E8">
-        <v>1.143838979938498</v>
+        <v>1.097916786895616</v>
       </c>
       <c r="F8">
-        <v>1.182201546917199</v>
+        <v>1.135726716235405</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2442518705359983</v>
+        <v>0.2028461735751207</v>
       </c>
       <c r="C9">
-        <v>0.9237084906745964</v>
+        <v>0.8472735835465873</v>
       </c>
       <c r="D9">
-        <v>1.28071108851681</v>
+        <v>1.158512388347609</v>
       </c>
       <c r="E9">
-        <v>1.131685065959965</v>
+        <v>1.076342133500128</v>
       </c>
       <c r="F9">
-        <v>1.158946643932379</v>
+        <v>1.10405820904526</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2743427060170232</v>
+        <v>0.239907996146195</v>
       </c>
       <c r="C10">
-        <v>0.7173732068984037</v>
+        <v>0.6651045147971374</v>
       </c>
       <c r="D10">
-        <v>0.6480408098574146</v>
+        <v>0.5928596743010739</v>
       </c>
       <c r="E10">
-        <v>0.8050098197273214</v>
+        <v>0.769973814035954</v>
       </c>
       <c r="F10">
-        <v>0.7977585888758522</v>
+        <v>0.7673553351966808</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2992733630611481</v>
+        <v>0.2225839694609408</v>
       </c>
       <c r="C11">
-        <v>0.8709837272326086</v>
+        <v>0.8306889768957216</v>
       </c>
       <c r="D11">
-        <v>1.366221798401566</v>
+        <v>1.245987321698922</v>
       </c>
       <c r="E11">
-        <v>1.168854909046271</v>
+        <v>1.116238021973325</v>
       </c>
       <c r="F11">
-        <v>1.198432062794587</v>
+        <v>1.152988242321246</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_latest_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_latest_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.09914768942982544</v>
+        <v>-0.1143386297721907</v>
       </c>
       <c r="C2">
-        <v>0.6760636891099804</v>
+        <v>0.6889840097079422</v>
       </c>
       <c r="D2">
-        <v>1.058759192261776</v>
+        <v>0.9692665404913205</v>
       </c>
       <c r="E2">
-        <v>1.02896024814459</v>
+        <v>0.9845133521142924</v>
       </c>
       <c r="F2">
-        <v>1.052237025233689</v>
+        <v>1.006200714633619</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.1143386297721907</v>
+        <v>-0.03231471279853988</v>
       </c>
       <c r="C3">
-        <v>0.6889840097079422</v>
+        <v>0.7695157101427289</v>
       </c>
       <c r="D3">
-        <v>0.9692665404913205</v>
+        <v>0.9504010021523444</v>
       </c>
       <c r="E3">
-        <v>0.9845133521142924</v>
+        <v>0.9748851225412891</v>
       </c>
       <c r="F3">
-        <v>1.006200714633619</v>
+        <v>1.004336377456358</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.03231471279853988</v>
+        <v>0.05671622629984657</v>
       </c>
       <c r="C4">
-        <v>0.7695157101427289</v>
+        <v>0.6321910596607474</v>
       </c>
       <c r="D4">
-        <v>0.9504010021523444</v>
+        <v>0.8518300650585396</v>
       </c>
       <c r="E4">
-        <v>0.9748851225412891</v>
+        <v>0.9229464042177854</v>
       </c>
       <c r="F4">
-        <v>1.004336377456358</v>
+        <v>0.951413452211165</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.05671622629984657</v>
+        <v>0.085928964333323</v>
       </c>
       <c r="C5">
-        <v>0.6321910596607474</v>
+        <v>0.5612671955956002</v>
       </c>
       <c r="D5">
-        <v>0.8518300650585396</v>
+        <v>0.5873845025919633</v>
       </c>
       <c r="E5">
-        <v>0.9229464042177854</v>
+        <v>0.7664101399328973</v>
       </c>
       <c r="F5">
-        <v>0.951413452211165</v>
+        <v>0.7883078955770884</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.085928964333323</v>
+        <v>0.1382138394267656</v>
       </c>
       <c r="C6">
-        <v>0.5612671955956002</v>
+        <v>0.7476276879241753</v>
       </c>
       <c r="D6">
-        <v>0.5873845025919633</v>
+        <v>1.097975515794379</v>
       </c>
       <c r="E6">
-        <v>0.7664101399328973</v>
+        <v>1.047843268716452</v>
       </c>
       <c r="F6">
-        <v>0.7883078955770884</v>
+        <v>1.077897322974905</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1382138394267656</v>
+        <v>0.1215206328360093</v>
       </c>
       <c r="C7">
-        <v>0.7476276879241753</v>
+        <v>0.7819526689445239</v>
       </c>
       <c r="D7">
-        <v>1.097975515794379</v>
+        <v>1.205421270947194</v>
       </c>
       <c r="E7">
-        <v>1.047843268716452</v>
+        <v>1.097916786895616</v>
       </c>
       <c r="F7">
-        <v>1.077897322974905</v>
+        <v>1.135726716235405</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1215206328360093</v>
+        <v>0.2028461735751207</v>
       </c>
       <c r="C8">
-        <v>0.7819526689445239</v>
+        <v>0.8472735835465873</v>
       </c>
       <c r="D8">
-        <v>1.205421270947194</v>
+        <v>1.158512388347609</v>
       </c>
       <c r="E8">
-        <v>1.097916786895616</v>
+        <v>1.076342133500128</v>
       </c>
       <c r="F8">
-        <v>1.135726716235405</v>
+        <v>1.10405820904526</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2028461735751207</v>
+        <v>0.239907996146195</v>
       </c>
       <c r="C9">
-        <v>0.8472735835465873</v>
+        <v>0.6651045147971374</v>
       </c>
       <c r="D9">
-        <v>1.158512388347609</v>
+        <v>0.5928596743010739</v>
       </c>
       <c r="E9">
-        <v>1.076342133500128</v>
+        <v>0.769973814035954</v>
       </c>
       <c r="F9">
-        <v>1.10405820904526</v>
+        <v>0.7673553351966808</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.239907996146195</v>
+        <v>0.2225839694609408</v>
       </c>
       <c r="C10">
-        <v>0.6651045147971374</v>
+        <v>0.8306889768957216</v>
       </c>
       <c r="D10">
-        <v>0.5928596743010739</v>
+        <v>1.245987321698922</v>
       </c>
       <c r="E10">
-        <v>0.769973814035954</v>
+        <v>1.116238021973325</v>
       </c>
       <c r="F10">
-        <v>0.7673553351966808</v>
+        <v>1.152988242321246</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2225839694609408</v>
+        <v>0.2059614158583246</v>
       </c>
       <c r="C11">
-        <v>0.8306889768957216</v>
+        <v>1.002733503272531</v>
       </c>
       <c r="D11">
-        <v>1.245987321698922</v>
+        <v>1.92968265145822</v>
       </c>
       <c r="E11">
-        <v>1.116238021973325</v>
+        <v>1.389130178010045</v>
       </c>
       <c r="F11">
-        <v>1.152988242321246</v>
+        <v>1.457110278930643</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_latest_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_GVA_matched_to_ifoCAST_since_2021/AVERAGE_1_9_matched_error_tables_latest_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.1143386297721907</v>
+        <v>-0.09914768942982544</v>
       </c>
       <c r="C2">
-        <v>0.6889840097079422</v>
+        <v>0.6760636891099804</v>
       </c>
       <c r="D2">
-        <v>0.9692665404913205</v>
+        <v>1.058759192261776</v>
       </c>
       <c r="E2">
-        <v>0.9845133521142924</v>
+        <v>1.02896024814459</v>
       </c>
       <c r="F2">
-        <v>1.006200714633619</v>
+        <v>1.052237025233689</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.03231471279853988</v>
+        <v>-0.1143386297721907</v>
       </c>
       <c r="C3">
-        <v>0.7695157101427289</v>
+        <v>0.6889840097079422</v>
       </c>
       <c r="D3">
-        <v>0.9504010021523444</v>
+        <v>0.9692665404913205</v>
       </c>
       <c r="E3">
-        <v>0.9748851225412891</v>
+        <v>0.9845133521142924</v>
       </c>
       <c r="F3">
-        <v>1.004336377456358</v>
+        <v>1.006200714633619</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05671622629984657</v>
+        <v>-0.03231471279853988</v>
       </c>
       <c r="C4">
-        <v>0.6321910596607474</v>
+        <v>0.7695157101427289</v>
       </c>
       <c r="D4">
-        <v>0.8518300650585396</v>
+        <v>0.9504010021523444</v>
       </c>
       <c r="E4">
-        <v>0.9229464042177854</v>
+        <v>0.9748851225412891</v>
       </c>
       <c r="F4">
-        <v>0.951413452211165</v>
+        <v>1.004336377456358</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.085928964333323</v>
+        <v>0.05671622629984657</v>
       </c>
       <c r="C5">
-        <v>0.5612671955956002</v>
+        <v>0.6321910596607474</v>
       </c>
       <c r="D5">
-        <v>0.5873845025919633</v>
+        <v>0.8518300650585396</v>
       </c>
       <c r="E5">
-        <v>0.7664101399328973</v>
+        <v>0.9229464042177854</v>
       </c>
       <c r="F5">
-        <v>0.7883078955770884</v>
+        <v>0.951413452211165</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1382138394267656</v>
+        <v>0.085928964333323</v>
       </c>
       <c r="C6">
-        <v>0.7476276879241753</v>
+        <v>0.5612671955956002</v>
       </c>
       <c r="D6">
-        <v>1.097975515794379</v>
+        <v>0.5873845025919633</v>
       </c>
       <c r="E6">
-        <v>1.047843268716452</v>
+        <v>0.7664101399328973</v>
       </c>
       <c r="F6">
-        <v>1.077897322974905</v>
+        <v>0.7883078955770884</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1215206328360093</v>
+        <v>0.1382138394267656</v>
       </c>
       <c r="C7">
-        <v>0.7819526689445239</v>
+        <v>0.7476276879241753</v>
       </c>
       <c r="D7">
-        <v>1.205421270947194</v>
+        <v>1.097975515794379</v>
       </c>
       <c r="E7">
-        <v>1.097916786895616</v>
+        <v>1.047843268716452</v>
       </c>
       <c r="F7">
-        <v>1.135726716235405</v>
+        <v>1.077897322974905</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2028461735751207</v>
+        <v>0.1215206328360093</v>
       </c>
       <c r="C8">
-        <v>0.8472735835465873</v>
+        <v>0.7819526689445239</v>
       </c>
       <c r="D8">
-        <v>1.158512388347609</v>
+        <v>1.205421270947194</v>
       </c>
       <c r="E8">
-        <v>1.076342133500128</v>
+        <v>1.097916786895616</v>
       </c>
       <c r="F8">
-        <v>1.10405820904526</v>
+        <v>1.135726716235405</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.239907996146195</v>
+        <v>0.2028461735751207</v>
       </c>
       <c r="C9">
-        <v>0.6651045147971374</v>
+        <v>0.8472735835465873</v>
       </c>
       <c r="D9">
-        <v>0.5928596743010739</v>
+        <v>1.158512388347609</v>
       </c>
       <c r="E9">
-        <v>0.769973814035954</v>
+        <v>1.076342133500128</v>
       </c>
       <c r="F9">
-        <v>0.7673553351966808</v>
+        <v>1.10405820904526</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2225839694609408</v>
+        <v>0.239907996146195</v>
       </c>
       <c r="C10">
-        <v>0.8306889768957216</v>
+        <v>0.6651045147971374</v>
       </c>
       <c r="D10">
-        <v>1.245987321698922</v>
+        <v>0.5928596743010739</v>
       </c>
       <c r="E10">
-        <v>1.116238021973325</v>
+        <v>0.769973814035954</v>
       </c>
       <c r="F10">
-        <v>1.152988242321246</v>
+        <v>0.7673553351966808</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2059614158583246</v>
+        <v>0.2225839694609408</v>
       </c>
       <c r="C11">
-        <v>1.002733503272531</v>
+        <v>0.8306889768957216</v>
       </c>
       <c r="D11">
-        <v>1.92968265145822</v>
+        <v>1.245987321698922</v>
       </c>
       <c r="E11">
-        <v>1.389130178010045</v>
+        <v>1.116238021973325</v>
       </c>
       <c r="F11">
-        <v>1.457110278930643</v>
+        <v>1.152988242321246</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
